--- a/lab3/lab3/result.xlsx
+++ b/lab3/lab3/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\source\repos\420\lab3\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3BF68D6-DE2F-4176-8784-7975C9923BFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6570C7CC-4282-4825-8E01-E40CBA76B97B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2430" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="915" yWindow="4065" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>sequential</t>
-  </si>
-  <si>
-    <t>decomposed</t>
   </si>
   <si>
     <t>parallel</t>
   </si>
   <si>
-    <t>iteration</t>
+    <t>grid16</t>
+  </si>
+  <si>
+    <t>grid8</t>
+  </si>
+  <si>
+    <t>grid4</t>
   </si>
 </sst>
 </file>
@@ -872,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,452 +886,623 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>269621400</v>
+        <v>8674600</v>
       </c>
       <c r="C2">
-        <v>7675100</v>
+        <v>7365100</v>
       </c>
       <c r="D2">
-        <v>7993300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8023900</v>
+      </c>
+      <c r="E2">
+        <v>7495600</v>
+      </c>
+      <c r="F2">
+        <v>8348500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>9239300</v>
+        <v>9446600</v>
       </c>
       <c r="C3">
-        <v>7347100</v>
+        <v>7371300</v>
       </c>
       <c r="D3">
-        <v>7301800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7516400</v>
+      </c>
+      <c r="E3">
+        <v>7169800</v>
+      </c>
+      <c r="F3">
+        <v>7169600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>8993900</v>
+        <v>8839000</v>
       </c>
       <c r="C4">
-        <v>7909700</v>
+        <v>7349400</v>
       </c>
       <c r="D4">
-        <v>7975100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7635500</v>
+      </c>
+      <c r="E4">
+        <v>7346600</v>
+      </c>
+      <c r="F4">
+        <v>6915000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>8958100</v>
+        <v>8633900</v>
       </c>
       <c r="C5">
-        <v>7376700</v>
+        <v>7906500</v>
       </c>
       <c r="D5">
-        <v>7493400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7556500</v>
+      </c>
+      <c r="E5">
+        <v>6851600</v>
+      </c>
+      <c r="F5">
+        <v>6899800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>8632000</v>
+        <v>8858800</v>
       </c>
       <c r="C6">
-        <v>7347000</v>
+        <v>7458200</v>
       </c>
       <c r="D6">
-        <v>7467000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7577700</v>
+      </c>
+      <c r="E6">
+        <v>7078100</v>
+      </c>
+      <c r="F6">
+        <v>7496700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>8904700</v>
+        <v>9072900</v>
       </c>
       <c r="C7">
-        <v>8193800</v>
+        <v>7261000</v>
       </c>
       <c r="D7">
-        <v>7644800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7391900</v>
+      </c>
+      <c r="E7">
+        <v>7043300</v>
+      </c>
+      <c r="F7">
+        <v>7111100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>9054400</v>
+        <v>8967700</v>
       </c>
       <c r="C8">
-        <v>7892400</v>
+        <v>7315600</v>
       </c>
       <c r="D8">
-        <v>7903400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7395900</v>
+      </c>
+      <c r="E8">
+        <v>7305100</v>
+      </c>
+      <c r="F8">
+        <v>6992700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>10389400</v>
+        <v>8844600</v>
       </c>
       <c r="C9">
-        <v>9965400</v>
+        <v>7242200</v>
       </c>
       <c r="D9">
-        <v>9604800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7437700</v>
+      </c>
+      <c r="E9">
+        <v>6987300</v>
+      </c>
+      <c r="F9">
+        <v>7150500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>10994300</v>
+        <v>8682300</v>
       </c>
       <c r="C10">
-        <v>9813700</v>
+        <v>7451200</v>
       </c>
       <c r="D10">
-        <v>9104700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7755300</v>
+      </c>
+      <c r="E10">
+        <v>7052000</v>
+      </c>
+      <c r="F10">
+        <v>7242900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>8930100</v>
+        <v>8966900</v>
       </c>
       <c r="C11">
-        <v>7618700</v>
+        <v>7348600</v>
       </c>
       <c r="D11">
-        <v>7595500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7600700</v>
+      </c>
+      <c r="E11">
+        <v>7281600</v>
+      </c>
+      <c r="F11">
+        <v>7070500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>8902500</v>
+        <v>8959200</v>
       </c>
       <c r="C12">
-        <v>7461200</v>
+        <v>7373700</v>
       </c>
       <c r="D12">
-        <v>7460100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7499200</v>
+      </c>
+      <c r="E12">
+        <v>7200600</v>
+      </c>
+      <c r="F12">
+        <v>7338500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>8592500</v>
+        <v>8764700</v>
       </c>
       <c r="C13">
-        <v>7453200</v>
+        <v>7410700</v>
       </c>
       <c r="D13">
-        <v>7705200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7421500</v>
+      </c>
+      <c r="E13">
+        <v>7196800</v>
+      </c>
+      <c r="F13">
+        <v>7028300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>9212500</v>
+        <v>8698300</v>
       </c>
       <c r="C14">
-        <v>8012100</v>
+        <v>7366600</v>
       </c>
       <c r="D14">
-        <v>8665700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7623700</v>
+      </c>
+      <c r="E14">
+        <v>7066000</v>
+      </c>
+      <c r="F14">
+        <v>7026800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>8910000</v>
+        <v>8714900</v>
       </c>
       <c r="C15">
-        <v>7774400</v>
+        <v>7276800</v>
       </c>
       <c r="D15">
-        <v>8404600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7402500</v>
+      </c>
+      <c r="E15">
+        <v>6935100</v>
+      </c>
+      <c r="F15">
+        <v>6750900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>9605100</v>
+        <v>8661000</v>
       </c>
       <c r="C16">
-        <v>7643900</v>
+        <v>7048800</v>
       </c>
       <c r="D16">
-        <v>7460000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7245400</v>
+      </c>
+      <c r="E16">
+        <v>6919000</v>
+      </c>
+      <c r="F16">
+        <v>7008800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>9821200</v>
+        <v>8692400</v>
       </c>
       <c r="C17">
-        <v>7920600</v>
+        <v>7211700</v>
       </c>
       <c r="D17">
-        <v>8701200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8087600</v>
+      </c>
+      <c r="E17">
+        <v>8080300</v>
+      </c>
+      <c r="F17">
+        <v>7637500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>9488500</v>
+        <v>9713900</v>
       </c>
       <c r="C18">
-        <v>8703400</v>
+        <v>7705100</v>
       </c>
       <c r="D18">
-        <v>9745500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7695100</v>
+      </c>
+      <c r="E18">
+        <v>7368600</v>
+      </c>
+      <c r="F18">
+        <v>6827900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>10642300</v>
+        <v>8249000</v>
       </c>
       <c r="C19">
-        <v>8871900</v>
+        <v>6753900</v>
       </c>
       <c r="D19">
-        <v>10217700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7334100</v>
+      </c>
+      <c r="E19">
+        <v>6660800</v>
+      </c>
+      <c r="F19">
+        <v>7012700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>14216800</v>
+        <v>8649000</v>
       </c>
       <c r="C20">
-        <v>12205800</v>
+        <v>7228200</v>
       </c>
       <c r="D20">
-        <v>10101400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7080200</v>
+      </c>
+      <c r="E20">
+        <v>6779800</v>
+      </c>
+      <c r="F20">
+        <v>6756000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>9866500</v>
+        <v>8579100</v>
       </c>
       <c r="C21">
-        <v>8752800</v>
+        <v>6941400</v>
       </c>
       <c r="D21">
-        <v>8395000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7041000</v>
+      </c>
+      <c r="E21">
+        <v>6710600</v>
+      </c>
+      <c r="F21">
+        <v>6596300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>9195400</v>
+        <v>8172200</v>
       </c>
       <c r="C22">
-        <v>7727400</v>
+        <v>6921300</v>
       </c>
       <c r="D22">
-        <v>7607700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7134500</v>
+      </c>
+      <c r="E22">
+        <v>6660500</v>
+      </c>
+      <c r="F22">
+        <v>6708000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>9476000</v>
+        <v>8225000</v>
       </c>
       <c r="C23">
-        <v>7818500</v>
+        <v>6921200</v>
       </c>
       <c r="D23">
-        <v>8694700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7132900</v>
+      </c>
+      <c r="E23">
+        <v>6853900</v>
+      </c>
+      <c r="F23">
+        <v>6772000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>9155300</v>
+        <v>8695500</v>
       </c>
       <c r="C24">
-        <v>7805700</v>
+        <v>7257900</v>
       </c>
       <c r="D24">
-        <v>7950600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7444300</v>
+      </c>
+      <c r="E24">
+        <v>7023300</v>
+      </c>
+      <c r="F24">
+        <v>6960300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>9052000</v>
+        <v>8781400</v>
       </c>
       <c r="C25">
-        <v>8355000</v>
+        <v>6928200</v>
       </c>
       <c r="D25">
-        <v>8693000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7354000</v>
+      </c>
+      <c r="E25">
+        <v>7542400</v>
+      </c>
+      <c r="F25">
+        <v>6694300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>10440100</v>
+        <v>8414300</v>
       </c>
       <c r="C26">
-        <v>8429700</v>
+        <v>7124100</v>
       </c>
       <c r="D26">
-        <v>8068800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7231200</v>
+      </c>
+      <c r="E26">
+        <v>6669900</v>
+      </c>
+      <c r="F26">
+        <v>6715200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>9327000</v>
+        <v>8332000</v>
       </c>
       <c r="C27">
-        <v>7824700</v>
+        <v>7116700</v>
       </c>
       <c r="D27">
-        <v>8241500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7111200</v>
+      </c>
+      <c r="E27">
+        <v>6848500</v>
+      </c>
+      <c r="F27">
+        <v>6632500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>9376800</v>
+        <v>8435700</v>
       </c>
       <c r="C28">
-        <v>8213800</v>
+        <v>7020000</v>
       </c>
       <c r="D28">
-        <v>8149700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7242300</v>
+      </c>
+      <c r="E28">
+        <v>6744300</v>
+      </c>
+      <c r="F28">
+        <v>7111300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>9806000</v>
+        <v>8705000</v>
       </c>
       <c r="C29">
-        <v>7207000</v>
+        <v>7866500</v>
       </c>
       <c r="D29">
-        <v>7255900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7902000</v>
+      </c>
+      <c r="E29">
+        <v>7785600</v>
+      </c>
+      <c r="F29">
+        <v>7160500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>8253400</v>
+        <v>9047000</v>
       </c>
       <c r="C30">
-        <v>7226900</v>
+        <v>7685400</v>
       </c>
       <c r="D30">
-        <v>7197900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
+        <v>8190500</v>
+      </c>
+      <c r="E30">
+        <v>7355500</v>
+      </c>
+      <c r="F30">
+        <v>7223400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>8328500</v>
+        <f>AVERAGE(B2:B30)</f>
+        <v>8740582.7586206906</v>
       </c>
       <c r="C31">
-        <v>6878500</v>
+        <f t="shared" ref="C31:F31" si="0">AVERAGE(C2:C30)</f>
+        <v>7283700</v>
       </c>
       <c r="D31">
-        <v>7690400</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f>AVERAGE(B2:B31)</f>
-        <v>18179533.333333332</v>
-      </c>
-      <c r="C33">
-        <f>AVERAGE(C2:C31)</f>
-        <v>8114203.333333333</v>
-      </c>
-      <c r="D33">
-        <f>AVERAGE(D2:D31)</f>
-        <v>8216346.666666667</v>
+        <f t="shared" si="0"/>
+        <v>7484989.6551724141</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>7103879.3103448274</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>7046844.8275862066</v>
       </c>
     </row>
   </sheetData>
